--- a/biology/Médecine/Le_Nouveau_Protocole/Le_Nouveau_Protocole.xlsx
+++ b/biology/Médecine/Le_Nouveau_Protocole/Le_Nouveau_Protocole.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Nouveau Protocole est un film à suspense français de Thomas Vincent sorti en mars 2008 en France. 
 Il s'agit du troisième long-métrage du réalisateur, après Karnaval (1999) et Je suis un assassin (2004). Il est produit par Mandarin Films et distribué par Studiocanal. 
@@ -513,7 +525,9 @@
           <t>Synopsis</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Raoul Kraft est un homme séparé et gérant une exploitation forestière. Un jour, son fils Franck décède après une sortie de route l'ayant précipité dans un ravin. Une jeune femme, Diane, l'informe que Franck participait à des essais cliniques pour un nouveau médicament. Après avoir refusé de lui fournir un échantillon du produit en question, la pharmacie de Raoul est fouillée mais les cambrioleurs n'emportent rien car Raoul avait les pilules de son fils avec lui. Il se rend à Paris et rencontre le Professeur Pleynel du laboratoire Nextys, qui avait travaillé sur ces essais. Le professeur rejette tout effet secondaire. Raoul retrouve Diane, expulsée d'une conférence de Louise Verneuil, de la société Hexcelor, où elle a accusé cette dernière d'avoir pratiqué des essais cliniques sur des populations d'Afrique et où de nombreux décès furent constatés. 
 Diane invite le père chez elle mais celui-ci découvre qu'elle est cette personne ayant cherché à lui dérober les médicaments. Alors qu'il est sur le point de partir, il sauve la jeune femme de deux individus voulant l'attraper. Ils rencontrent un ami de Diane, William, à qui Raoul confie le médicament pour une analyse. Raoul enterre Franck et revient à Paris avec la certitude que ni la voiture ni la conduite de son fils ne sont les causes de cet accident. Diane lui apprend que Nextys a un mandat de sous-traitance avec Hexcelor, en ce qui concerne les essais, et que le responsable semble être Pleynel. Diane se fait attaquer par deux hommes armés mais Raoul la sauve, une nouvelle fois, et les deux prennent la fuite. Ensuite, ils se rendent à Nextys et parviennent à dérober plusieurs document, dont le dossier de Franck.
@@ -548,7 +562,9 @@
           <t>Fiche technique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Les acteurs Clovis Cornillac et Marie-Josée Croze à l'avant-première du film, à l'UGC Ciné Cité Bercy, à Paris, le 18 mars 2008.
 Titre : Le Nouveau Protocole
@@ -567,11 +583,11 @@
 Langue originale : français
 Genres : thriller, drame
 Durée : 93 minutes
-Classification : Tous publics[1].
+Classification : Tous publics.
 Dates de sortie :
 France : 19 mars 2008 en salles
-France : 23 septembre 2008 en vidéo [2]
-Sauf mention contraire, les informations de cette section proviennent de l'Internet Movie Database[3] et Allociné[4]. 
+France : 23 septembre 2008 en vidéo 
+Sauf mention contraire, les informations de cette section proviennent de l'Internet Movie Database et Allociné. 
 </t>
         </is>
       </c>
@@ -600,7 +616,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Clovis Cornillac : Raoul Kraft
 Marie-Josée Croze : Diane
@@ -641,11 +659,51 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t xml:space="preserve">Genèse et scénario
-Depuis plusieurs années, l'acteur Clovis Cornillac réfléchit à un rôle particulier. Il désire interpréter un personnage d'« homme simple confronté à un monde complexe » selon Éric Besnard[5]. Thomas Vincent explique que Cornillac veut un homme, inspiré de Lino Ventura dans les années 1970, ayant une certaine virilité, possédant un grand cœur, charismatique mais également discret[6]. Éric et Nicolas Altmayer, producteurs de Mandarin Films, contactent Cornillac et lui demandent s'il désire jouer un rôle particulier et l'acteur leur soumet cette idée[5]. L'acteur leur propose de contacter son ami Éric Besnard pour l'écriture d'un scénario[7]. Ce dernier a l'idée de travailler sur l'industrie pharmaceutique et se penche sur des faits divers pour construire son histoire[5]. La scène d'ouverture, montrant des essais cliniques en Afrique, s'inspire de ceux réalisés au Nigéria par l'entreprise Pfizer, accusée d'avoir provoqué la mort de plusieurs enfants[8],[9]. Ayant lu le scénario, Cornillac avoue qu'il a appris des choses et qu'il a été surpris par les références citées par Besnard[6].
-Besnard désire « parler d'un monde où l'individu n'a plus le droit d'émettre un avis, un monde libéral dans lequel la recherche du profit est contradictoire avec la santé publique »[5]. Lorsqu'il consulte les recherches du scénariste, Vincent est « surpris par le cynisme généralisé qui est mis en œuvre » dans cette industrie. D'ailleurs, le réalisateur n'est choisi qu'après l'élaboration de l'histoire originale[7]. Thomas Vincent apprécie certaines idées du scénario de Besnard, comme le métier de bûcheron du protagoniste[6]. Le réalisateur trouve cette idée « assez séduisante » car « [il] aime bien quand on utilise des personnes qu'on n'a pas l'habitude de voir au cinéma »[6]. Les deux vont ensuite travailler ensemble sur l'écriture définitive de ce scénario[6]. La création de deux personnages principaux est nécessaire pour Besnard car elle permet de s'identifier à l'un d'entre eux[5].
-Tournage
-Dix semaines sont prévues pour filmer l'ensemble des plans, dont deux en Alsace et huit à Paris[10]. Le tournage démarre le 19 février 2007 dans le département des Vosges[10]. Il se révèle assez difficile pour les deux comédiens principaux, qui doivent se mettre dans un état de deuil pendant deux mois[5]. Une grande partie des scènes censées se passer à Davos a été tournée à Méribel[11].
+          <t>Genèse et scénario</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Depuis plusieurs années, l'acteur Clovis Cornillac réfléchit à un rôle particulier. Il désire interpréter un personnage d'« homme simple confronté à un monde complexe » selon Éric Besnard. Thomas Vincent explique que Cornillac veut un homme, inspiré de Lino Ventura dans les années 1970, ayant une certaine virilité, possédant un grand cœur, charismatique mais également discret. Éric et Nicolas Altmayer, producteurs de Mandarin Films, contactent Cornillac et lui demandent s'il désire jouer un rôle particulier et l'acteur leur soumet cette idée. L'acteur leur propose de contacter son ami Éric Besnard pour l'écriture d'un scénario. Ce dernier a l'idée de travailler sur l'industrie pharmaceutique et se penche sur des faits divers pour construire son histoire. La scène d'ouverture, montrant des essais cliniques en Afrique, s'inspire de ceux réalisés au Nigéria par l'entreprise Pfizer, accusée d'avoir provoqué la mort de plusieurs enfants,. Ayant lu le scénario, Cornillac avoue qu'il a appris des choses et qu'il a été surpris par les références citées par Besnard.
+Besnard désire « parler d'un monde où l'individu n'a plus le droit d'émettre un avis, un monde libéral dans lequel la recherche du profit est contradictoire avec la santé publique ». Lorsqu'il consulte les recherches du scénariste, Vincent est « surpris par le cynisme généralisé qui est mis en œuvre » dans cette industrie. D'ailleurs, le réalisateur n'est choisi qu'après l'élaboration de l'histoire originale. Thomas Vincent apprécie certaines idées du scénario de Besnard, comme le métier de bûcheron du protagoniste. Le réalisateur trouve cette idée « assez séduisante » car « [il] aime bien quand on utilise des personnes qu'on n'a pas l'habitude de voir au cinéma ». Les deux vont ensuite travailler ensemble sur l'écriture définitive de ce scénario. La création de deux personnages principaux est nécessaire pour Besnard car elle permet de s'identifier à l'un d'entre eux.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Le_Nouveau_Protocole</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Le_Nouveau_Protocole</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Production</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Tournage</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dix semaines sont prévues pour filmer l'ensemble des plans, dont deux en Alsace et huit à Paris. Le tournage démarre le 19 février 2007 dans le département des Vosges. Il se révèle assez difficile pour les deux comédiens principaux, qui doivent se mettre dans un état de deuil pendant deux mois. Une grande partie des scènes censées se passer à Davos a été tournée à Méribel.
 D'autres prises de vues ont eu lieu à Chaumontel, Luzarches, Levallois-Perret, Bagnolet. Quant à la séquence d'ouverture, elle a été tournée au Burkina Faso
 </t>
         </is>
